--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>RollNumber</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>19951A0566</t>
+  </si>
   <si>
     <t>19951A0535</t>
+  </si>
+  <si>
+    <t>19951A0565</t>
   </si>
 </sst>
 </file>
@@ -334,21 +346,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>